--- a/src/main/resources/excel/order.xlsx
+++ b/src/main/resources/excel/order.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="18">
   <si>
     <t>OR-123</t>
   </si>
@@ -238,27 +238,125 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11"/>
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
         <v>10</v>
       </c>
     </row>
